--- a/Interview/Interviews.xlsx
+++ b/Interview/Interviews.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>Interview Questions</t>
-  </si>
-  <si>
-    <t>#R1   21-10-2024 
-#R2   07-11-2024</t>
   </si>
   <si>
     <r>
@@ -103,6 +99,298 @@
   </si>
   <si>
     <t>Chances of getting selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to learn SQL
+Refresh Perl Again 
+They require some one who know php ,java and SQL :)
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Techinal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PERL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+map 
+reduce
+filter
+import modules in perl
+warning vs strict with examples
+Read arguments in PERL
+contents from external source
+Regular Expression in PERL
+How arguments are stored
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+index
+10th highest salary
+employee who is also manager
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHELL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+read the values from arguments
+how arguments are stored
+find command
+os version  
+shell functions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manger Round</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Intro
+Why leaving current Company
+devops concept
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Technical
+Manager Round</t>
+  </si>
+  <si>
+    <t>NOUS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#R1   12-11-2024 
+#R2   12-11-2024
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Skills:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PERL
+SHELL
+PHP
+JAVA
+DATABASE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#R1   21-10-2024 
+#R2   07-11-2024
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Database
+Shell Scripting </t>
+    </r>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shell Scripting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Size of the files 
+differnce btwn grep and find
+storage management
+how to replace text in file
+ping command
+hidden files
+differnce btwn diff and comp
+alias
+how to run process in background
+number of arguments
+chmod
+corn jobs
+entered number is positive or negative
+hightest number in array
+reversh the string
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+joins
+second highest salary
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to Learn SQL
+-Night shifts 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#R1 15-11-2024      
+Linix
+Shell
+SQL   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Application Support Engineer</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -135,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -158,14 +446,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -175,11 +488,44 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,59 +828,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1"/>
+      <c r="G3" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6" t="s">
+    <row r="4" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
